--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2910.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2910.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.106184754897311</v>
+        <v>1.444093465805054</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.972862362861633</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.044617414474487</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>4.888361930847168</v>
       </c>
       <c r="E1">
-        <v>1.087000921356437</v>
+        <v>0.9191415905952454</v>
       </c>
     </row>
   </sheetData>
